--- a/Data/Temp/RSKTable_Template.xlsx
+++ b/Data/Temp/RSKTable_Template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Order type</t>
   </si>
@@ -57,13 +57,19 @@
     <t>If successful, sales order no</t>
   </si>
   <si>
-    <t>If unsuccessful, reason</t>
-  </si>
-  <si>
     <t>Processed on</t>
   </si>
   <si>
     <t>Batch</t>
+  </si>
+  <si>
+    <t>Request Sender</t>
+  </si>
+  <si>
+    <t>Reason/Credit limit</t>
+  </si>
+  <si>
+    <t>Sales Representative</t>
   </si>
 </sst>
 </file>
@@ -101,7 +107,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,11 +456,11 @@
     <col min="10" max="10" width="18.6328125" customWidth="1"/>
     <col min="11" max="11" width="13.1796875" customWidth="1"/>
     <col min="12" max="12" width="29.81640625" customWidth="1"/>
-    <col min="13" max="13" width="26" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" customWidth="1"/>
+    <col min="13" max="14" width="26" customWidth="1"/>
+    <col min="15" max="15" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -491,20 +497,24 @@
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
@@ -520,6 +530,7 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
